--- a/Project Management/timesheets/MCI-Timesheet - Nilangi - a1882259.xlsx
+++ b/Project Management/timesheets/MCI-Timesheet - Nilangi - a1882259.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MCI_Project\Timesheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37F37A55-74E4-4DC2-8A28-04F885C361F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331F6787-2F6E-4E58-B781-24EC16A27C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="124">
   <si>
     <t>MCI Project Weekly Time Sheet</t>
   </si>
@@ -404,6 +404,15 @@
   </si>
   <si>
     <t>Provided advice to others how to start front end development and divided tasks.</t>
+  </si>
+  <si>
+    <t>Prepared business case and draft plan.</t>
+  </si>
+  <si>
+    <t>Completed business case and draft plan.</t>
+  </si>
+  <si>
+    <t>Worked on Business Case and draft plan including Gantt Chart.</t>
   </si>
 </sst>
 </file>
@@ -937,8 +946,8 @@
   </sheetPr>
   <dimension ref="A2:AW72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F77" sqref="F77"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="82" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L58" sqref="L58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2211,13 +2220,13 @@
         <v>45378</v>
       </c>
       <c r="C56" s="13">
-        <v>0.41666666666666669</v>
+        <v>0.5</v>
       </c>
       <c r="D56" s="13">
-        <v>0.75</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E56" s="14">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F56" s="9" t="s">
         <v>99</v>
@@ -2295,16 +2304,16 @@
         <v>0.5</v>
       </c>
       <c r="E59" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="H59" s="14" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -2313,7 +2322,7 @@
       </c>
       <c r="E60" s="5">
         <f>SUM(E54:E59)</f>
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="20" thickBot="1" x14ac:dyDescent="0.5">

--- a/Project Management/timesheets/MCI-Timesheet - Nilangi - a1882259.xlsx
+++ b/Project Management/timesheets/MCI-Timesheet - Nilangi - a1882259.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MCI_Project\Timesheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331F6787-2F6E-4E58-B781-24EC16A27C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A75E92-DF51-4018-879D-B170854B306B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet2!$A$1:$H$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet2!$A$1:$J$134</definedName>
     <definedName name="Week_Start">Sheet2!$C$4</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="191">
   <si>
     <t>MCI Project Weekly Time Sheet</t>
   </si>
@@ -379,15 +379,9 @@
     <t>Improving the home page.</t>
   </si>
   <si>
-    <t>Started creating a dummy blog page.</t>
-  </si>
-  <si>
     <t>Attended the workshop and did further modifications to the home page and started looking at example blog pages.</t>
   </si>
   <si>
-    <t>Draft blog page.</t>
-  </si>
-  <si>
     <t>Participated in the client meeting, and presented the home page to the client.</t>
   </si>
   <si>
@@ -413,6 +407,221 @@
   </si>
   <si>
     <t>Worked on Business Case and draft plan including Gantt Chart.</t>
+  </si>
+  <si>
+    <t>Started creating the blog page.</t>
+  </si>
+  <si>
+    <t>Simple blog page.</t>
+  </si>
+  <si>
+    <t>April 22 (Week 7)</t>
+  </si>
+  <si>
+    <t>April 8 (Mid Semester Break)</t>
+  </si>
+  <si>
+    <t>The Home Page in the front-end is the main crucial page of the website.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Blog is one of the main objectives of the web project that enhances community engagement. </t>
+  </si>
+  <si>
+    <t>Main blog page created with static data as blog posts.</t>
+  </si>
+  <si>
+    <t>Created the "Create Blog Posts" Page.</t>
+  </si>
+  <si>
+    <t>A page for the experts to write blog articles is essential as a subpage of the blog.</t>
+  </si>
+  <si>
+    <t>The create blog page was created with a rich text editor.</t>
+  </si>
+  <si>
+    <t>April 15 (Mid Semester Break)</t>
+  </si>
+  <si>
+    <t>Modified the home page page further based on client's feedback in the last meeting.</t>
+  </si>
+  <si>
+    <t>Researched about blogs and blog pages and developed the main blog page with all blog posts.</t>
+  </si>
+  <si>
+    <t>Created the Sign Up and Log In pages.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Before the mid semester break, client had requested to create it as it is essential. </t>
+  </si>
+  <si>
+    <t>Sign Up and Login were created with  necessary form fields.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Created the Blog View page to view a single blog article. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The initial "Blog View" page with comments and replies section -  </t>
+  </si>
+  <si>
+    <t>A page to view, read and comment on each blog article is a main page needed to achieve one of the goals of enhancing community engagement for WellSpace.</t>
+  </si>
+  <si>
+    <t>For later integration with back-end and front-end, it is essential to keep them updated with the data structure so that they can create the API accordingly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conveying the updates to Back-end team. </t>
+  </si>
+  <si>
+    <t>The front-end UI s, data models and static data structure of the blog and LogIn/ Sign Up pages were communicated to back-end.</t>
+  </si>
+  <si>
+    <t>Created the Information Page.</t>
+  </si>
+  <si>
+    <t>Information page was in project plan as a page to provide mental health information to users.</t>
+  </si>
+  <si>
+    <t>The information page with a list group on the left as a side bar to navigate to each heading in information section.</t>
+  </si>
+  <si>
+    <t>As the Home Page is the first page where users enter the website, it was made fully responsive and appealing to the users.</t>
+  </si>
+  <si>
+    <t>The Blog is meant to build trust, enhance community engagement and get expert contribution for the help seekers.</t>
+  </si>
+  <si>
+    <t>The blog's main page was created with a responsive design,
+complete with a distinctive hero section and a catalog of articles. A "Write a New Article" feature
+directs experts to a dedicated page equipped with a rich text
+editor and image upload capabilities. Additionally, a separate,
+visually engaging page allows users to view complete articles,
+comment on, and reply to posts, fostering an interactive
+community space.</t>
+  </si>
+  <si>
+    <t>Client Meeting is instrumental in getting advice and feedback.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attended the lecture and workshop and updated the team on what was said. Modified the components of Home Page - Footer, NavBar and Get Involved Cards.Updated the cards and updated the navigation links in Home Page.
+</t>
+  </si>
+  <si>
+    <t>Modifying Three Blog Pages and wrote the Agenda and prepared the demo for the next day's client meeting. On the blog page:
+ The search and category tags were implemented.</t>
+  </si>
+  <si>
+    <t>Created a document on Challenges including information on various quizes and shared with the team. Modified Login and Sign Up pages with more appealing design and toggle buttons to toggle between user and expert.</t>
+  </si>
+  <si>
+    <t>The Challenges page is one of the unique features of WellSpace and I created a document including information for the Challenges page. The user experience of LogIn and Sign Up pages were improved.</t>
+  </si>
+  <si>
+    <t>Document with information on Challenges page and the improved LogIn and Sign Up pages.</t>
+  </si>
+  <si>
+    <t>Home page with maximum responsiveness and user engagement featured with navigation bar that shows user profile icon when logged in, hero section, interactive cards and buttons, video esction, testimonials and a polished footer.</t>
+  </si>
+  <si>
+    <t>Positive feedback from the client and suggestions for Milestone 2.</t>
+  </si>
+  <si>
+    <t>April 29 (Week 8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Further modifications to Information Page and Demo at Client Meeting </t>
+  </si>
+  <si>
+    <t>Assignment</t>
+  </si>
+  <si>
+    <t>Added content about the front end pages I have completed for Milestone 1.</t>
+  </si>
+  <si>
+    <t>Working on Milestone 1 Report</t>
+  </si>
+  <si>
+    <t>Project Management and collaboration on GitHub</t>
+  </si>
+  <si>
+    <t>The intended folder structure was successfully created after doing amendments on Git.</t>
+  </si>
+  <si>
+    <t>I added the team reflection and problems section to Milestone 1 report and submitted it. Successfully hosted the backend server locally.</t>
+  </si>
+  <si>
+    <t>Working on Milestone 1 Report. Did the setup for running the backend server and hosted the server locally. Had an internal meeting with backend.</t>
+  </si>
+  <si>
+    <t>Re-structuring the folder structure of front-end in GitHub according to back-end team's advice. Had an internal meeting with backend.</t>
+  </si>
+  <si>
+    <t>Completing and submitting Milestone 1 report on behalf of the team. Setting up the backend server was crucial for starting the integration with backend.</t>
+  </si>
+  <si>
+    <t>Integrating LogIn and Sign-Up with backend is the first and crucial step for setting up the user authentication system.</t>
+  </si>
+  <si>
+    <t>Created the User Profile Page and added API calls for LogIn and Sign Up. Attended lecture and workshop.</t>
+  </si>
+  <si>
+    <t>The user profile page was created but had issues with integrating sign -up and login.</t>
+  </si>
+  <si>
+    <t>Resolved merge conflicts and modified backend for login and sign-up integration including the data structure of the request body  in the backend, to accommodate additional information being sent in the request for sign up. Enhanced the appearance of User profile page.</t>
+  </si>
+  <si>
+    <t>Sign-up and login integration between the front-end and back-end of a website ensures secure, validated user data handling, providing seamless user authentication and the user profile page enhances overall user experience.</t>
+  </si>
+  <si>
+    <t>The integration of sign-up and login worked between frontend and backend.</t>
+  </si>
+  <si>
+    <t>Modified the Information Page further with better design and styling. Had to modify the backend for another issue that came up with sign-up and login intgration. In the client meeting, demonstrated the modified information page, login, sign-up pages and the user profile page and the integration.</t>
+  </si>
+  <si>
+    <t>The information page on our mental health website is a page included in our project plan and is crucial as it provides reliable informationa and helps users understand conditions, treatments, and coping strategies. The sign-up and login integration is also a crucial part of the project which the client had requested.</t>
+  </si>
+  <si>
+    <t>The information page was modified to provide a better user experience. The sign-up and login integration was successful, where both types of users including mental health users and experts can login and sign-up successful. The client was happy with the progress that I demonstrated.</t>
+  </si>
+  <si>
+    <t>May 6 (Week 9)</t>
+  </si>
+  <si>
+    <t>Modifications to sign -up page - removal of gender attribute, upon feedback of client.</t>
+  </si>
+  <si>
+    <t>Modified sign-up page as per client's requirements.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integration with backend for All Blog Posts (Main Blog) page, View a Single Blog page, and Create a Blog page.  Had to modify backend code as well.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The blog on WellSpace is important as it offers expert insights, and educational content, fostering community engagement, providing ongoing mental health support, and enhancing user knowledge and connection. It is one of the main features of WellSpace.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The blog's main page and its subpages were integrated successfully except for images (as the images could not be stored in the backend) and the name of the expert who wrote the blog article could not be retrieved from backend. Added a "Summary" section to the "View a Single Blog Post" page. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">As mentioned in the above tables, the sign-up page is a crucial page. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integration of the blog is a main part of the project as mentioned above - for that, discussions were taken place and debugging, testing and resolving errors were done. </t>
+  </si>
+  <si>
+    <t>Resolved errors that occurred with blog integration, leading successful integration of the blog pages except for images.</t>
+  </si>
+  <si>
+    <t>Added "IsPublished" parameter for blog posts to be recieved from front-end and changes were made from backend to retrieve isPublished parameter.</t>
+  </si>
+  <si>
+    <t>When an expert (doctor) writes an article, then it gets saved in the database, but for it to appear in the list of blogs on main blog page, the parameters were adjusted.</t>
+  </si>
+  <si>
+    <t>Had discussions with backend and the back-end team member pointed out that I should pass "blogId" instead of "doctorId". The problem with uploading images was discussed and the backend needed time to setup third party provider for that. Resolved errors that occured while integrating the blog. Attended the lecture and workshop and updated the team.</t>
+  </si>
+  <si>
+    <t>The integration of blog was done and now clearly could be demonstrated.</t>
   </si>
 </sst>
 </file>
@@ -558,7 +767,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -576,9 +785,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -600,6 +806,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -944,35 +1154,36 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:AW72"/>
+  <dimension ref="A2:AW132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="82" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L58" sqref="L58"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="102" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A122" sqref="A122:H122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
     <col min="5" max="5" width="8.5" customWidth="1"/>
-    <col min="6" max="6" width="22.6640625" customWidth="1"/>
-    <col min="7" max="7" width="44.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.4140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.08203125" customWidth="1"/>
+    <col min="7" max="7" width="61.5" customWidth="1"/>
+    <col min="8" max="8" width="60.33203125" customWidth="1"/>
     <col min="15" max="49" width="10.83203125"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:49" ht="20" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
@@ -1001,7 +1212,7 @@
       </c>
     </row>
     <row r="5" spans="1:49" ht="31" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1027,28 +1238,28 @@
       </c>
     </row>
     <row r="6" spans="1:49" s="7" customFormat="1" ht="52" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="11">
         <v>45348</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="12">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="12">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="13">
         <v>3</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="13" t="s">
         <v>24</v>
       </c>
       <c r="I6" s="6"/>
@@ -1094,24 +1305,24 @@
       <c r="AW6" s="6"/>
     </row>
     <row r="7" spans="1:49" s="7" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="11">
         <v>45349</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="14">
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="13">
         <v>0</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="13" t="s">
         <v>25</v>
       </c>
       <c r="I7" s="6"/>
@@ -1157,28 +1368,28 @@
       <c r="AW7" s="6"/>
     </row>
     <row r="8" spans="1:49" s="7" customFormat="1" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="11">
         <v>45350</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="12">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="12">
         <v>0.79166666666666663</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="13">
         <v>9</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="13" t="s">
         <v>29</v>
       </c>
       <c r="I8" s="6"/>
@@ -1224,28 +1435,28 @@
       <c r="AW8" s="6"/>
     </row>
     <row r="9" spans="1:49" s="7" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="11">
         <v>45351</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="14">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="14">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="13">
         <v>1</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="13" t="s">
         <v>32</v>
       </c>
       <c r="I9" s="6"/>
@@ -1291,18 +1502,18 @@
       <c r="AW9" s="6"/>
     </row>
     <row r="10" spans="1:49" s="7" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="11">
         <v>45352</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="14"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="13"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
@@ -1346,18 +1557,18 @@
       <c r="AW10" s="6"/>
     </row>
     <row r="11" spans="1:49" s="7" customFormat="1" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="11">
         <v>45353</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="13"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
@@ -1410,16 +1621,16 @@
       </c>
     </row>
     <row r="14" spans="1:49" ht="20" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" spans="1:49" ht="19" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
@@ -1448,7 +1659,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="31" x14ac:dyDescent="0.35">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -1473,159 +1684,159 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="93" x14ac:dyDescent="0.35">
-      <c r="A18" s="11" t="s">
+    <row r="18" spans="1:8" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="11">
         <v>45355</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="12">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="12">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="13">
         <v>2</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="14" t="s">
+      <c r="H18" s="13" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="95.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="11">
         <v>45356</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="14">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="14">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="13">
         <v>3</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H19" s="14" t="s">
+      <c r="H19" s="13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="11">
         <v>45357</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="12">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="12">
         <v>0.75</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="13">
         <v>8</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H20" s="14" t="s">
+      <c r="H20" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="14" t="s">
+    <row r="21" spans="1:8" ht="31" x14ac:dyDescent="0.35">
+      <c r="A21" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="11">
         <v>45358</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="14">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="14">
         <v>0.54166666666666663</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="13">
         <v>3</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="H21" s="14" t="s">
+      <c r="H21" s="13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="62" x14ac:dyDescent="0.35">
-      <c r="A22" s="11" t="s">
+    <row r="22" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="11">
         <v>45359</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="12">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="12">
         <v>0.5</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="13">
         <v>2</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H22" s="14" t="s">
+      <c r="H22" s="13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="78" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="14" t="s">
+    <row r="23" spans="1:8" ht="47" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="11">
         <v>45360</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="14">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="14">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="13">
         <v>6</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="H23" s="14" t="s">
+      <c r="H23" s="13" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1639,16 +1850,16 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="20" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
     </row>
     <row r="27" spans="1:8" ht="19" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
@@ -1677,7 +1888,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="31" x14ac:dyDescent="0.35">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -1702,159 +1913,159 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="11" t="s">
+    <row r="30" spans="1:8" ht="31" x14ac:dyDescent="0.35">
+      <c r="A30" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="11">
         <v>45362</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C30" s="12">
         <v>0.375</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D30" s="12">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E30" s="13">
         <v>1</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="G30" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="H30" s="14" t="s">
+      <c r="H30" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="82" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="12">
+      <c r="B31" s="11">
         <v>45363</v>
       </c>
-      <c r="C31" s="15">
+      <c r="C31" s="14">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D31" s="14">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E31" s="13">
         <v>2</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="G31" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H31" s="14" t="s">
+      <c r="H31" s="13" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="170.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="11" t="s">
+    <row r="32" spans="1:8" ht="139.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="12">
+      <c r="B32" s="11">
         <v>45364</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C32" s="12">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D32" s="12">
         <v>0.75</v>
       </c>
-      <c r="E32" s="14">
+      <c r="E32" s="13">
         <v>8</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="G32" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H32" s="14" t="s">
+      <c r="H32" s="13" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="12">
+      <c r="B33" s="11">
         <v>45365</v>
       </c>
-      <c r="C33" s="15">
+      <c r="C33" s="14">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D33" s="14">
         <v>0.58333333333333337</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E33" s="13">
         <v>4</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F33" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G33" s="9" t="s">
+      <c r="G33" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H33" s="14" t="s">
+      <c r="H33" s="13" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="62" x14ac:dyDescent="0.35">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="11">
         <v>45366</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C34" s="12">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D34" s="12">
         <v>0.5</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E34" s="13">
         <v>2</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F34" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="G34" s="9" t="s">
+      <c r="G34" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="H34" s="14" t="s">
+      <c r="H34" s="13" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="93.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="12">
+      <c r="B35" s="11">
         <v>45367</v>
       </c>
-      <c r="C35" s="15">
+      <c r="C35" s="14">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D35" s="14">
         <v>0.75</v>
       </c>
-      <c r="E35" s="14">
+      <c r="E35" s="13">
         <v>8</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F35" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="G35" s="9" t="s">
+      <c r="G35" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="H35" s="14" t="s">
+      <c r="H35" s="13" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1868,16 +2079,16 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="20" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
     </row>
     <row r="39" spans="1:8" ht="19" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
@@ -1906,7 +2117,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="31" x14ac:dyDescent="0.35">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B41" s="3" t="s">
@@ -1931,159 +2142,159 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="11" t="s">
+    <row r="42" spans="1:8" ht="31" x14ac:dyDescent="0.35">
+      <c r="A42" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="12">
+      <c r="B42" s="11">
         <v>45369</v>
       </c>
-      <c r="C42" s="13">
+      <c r="C42" s="12">
         <v>0.375</v>
       </c>
-      <c r="D42" s="13">
+      <c r="D42" s="12">
         <v>0.5</v>
       </c>
-      <c r="E42" s="14">
+      <c r="E42" s="13">
         <v>3</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="F42" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="G42" s="9" t="s">
+      <c r="G42" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="H42" s="14" t="s">
+      <c r="H42" s="13" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="12">
+      <c r="B43" s="11">
         <v>45370</v>
       </c>
-      <c r="C43" s="15">
+      <c r="C43" s="14">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D43" s="15">
+      <c r="D43" s="14">
         <v>0.95833333333333337</v>
       </c>
-      <c r="E43" s="14">
+      <c r="E43" s="13">
         <v>6</v>
       </c>
-      <c r="F43" s="9" t="s">
+      <c r="F43" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="G43" s="9" t="s">
+      <c r="G43" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="H43" s="14" t="s">
+      <c r="H43" s="13" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="155" x14ac:dyDescent="0.35">
-      <c r="A44" s="11" t="s">
+    <row r="44" spans="1:8" ht="139.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="12">
+      <c r="B44" s="11">
         <v>45371</v>
       </c>
-      <c r="C44" s="13">
+      <c r="C44" s="12">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D44" s="13">
+      <c r="D44" s="12">
         <v>0.75</v>
       </c>
-      <c r="E44" s="14">
+      <c r="E44" s="13">
         <v>8</v>
       </c>
-      <c r="F44" s="9" t="s">
+      <c r="F44" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="G44" s="9" t="s">
+      <c r="G44" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="H44" s="14" t="s">
+      <c r="H44" s="13" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="31" x14ac:dyDescent="0.35">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B45" s="12">
+      <c r="B45" s="11">
         <v>45372</v>
       </c>
-      <c r="C45" s="15">
+      <c r="C45" s="14">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D45" s="15">
+      <c r="D45" s="14">
         <v>0.58333333333333337</v>
       </c>
-      <c r="E45" s="14">
+      <c r="E45" s="13">
         <v>4</v>
       </c>
-      <c r="F45" s="9" t="s">
+      <c r="F45" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="G45" s="9" t="s">
+      <c r="G45" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="H45" s="14" t="s">
+      <c r="H45" s="13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="12">
+      <c r="B46" s="11">
         <v>45373</v>
       </c>
-      <c r="C46" s="13">
+      <c r="C46" s="12">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D46" s="13">
+      <c r="D46" s="12">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E46" s="14">
+      <c r="E46" s="13">
         <v>1</v>
       </c>
-      <c r="F46" s="9" t="s">
+      <c r="F46" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="G46" s="9" t="s">
+      <c r="G46" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="H46" s="14" t="s">
+      <c r="H46" s="13" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="47" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B47" s="12">
+      <c r="B47" s="11">
         <v>45374</v>
       </c>
-      <c r="C47" s="15">
+      <c r="C47" s="14">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D47" s="15">
+      <c r="D47" s="14">
         <v>0.58333333333333337</v>
       </c>
-      <c r="E47" s="14">
+      <c r="E47" s="13">
         <v>4</v>
       </c>
-      <c r="F47" s="9" t="s">
+      <c r="F47" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="G47" s="9" t="s">
+      <c r="G47" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="H47" s="14" t="s">
+      <c r="H47" s="13" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2097,16 +2308,16 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="20" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
     </row>
     <row r="51" spans="1:8" ht="19" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
@@ -2135,7 +2346,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" ht="31" x14ac:dyDescent="0.35">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B53" s="3" t="s">
@@ -2161,159 +2372,159 @@
       </c>
     </row>
     <row r="54" spans="1:8" ht="91" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="11" t="s">
+      <c r="A54" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B54" s="12">
+      <c r="B54" s="11">
         <v>45376</v>
       </c>
-      <c r="C54" s="13">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="D54" s="13">
-        <v>0</v>
-      </c>
-      <c r="E54" s="14">
+      <c r="C54" s="12">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D54" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="E54" s="13">
         <v>4</v>
       </c>
-      <c r="F54" s="9" t="s">
+      <c r="F54" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="G54" s="9" t="s">
+      <c r="G54" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="H54" s="14" t="s">
+      <c r="H54" s="13" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A55" s="14" t="s">
+      <c r="A55" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="12">
+      <c r="B55" s="11">
         <v>45377</v>
       </c>
-      <c r="C55" s="15">
+      <c r="C55" s="14">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D55" s="15">
+      <c r="D55" s="14">
         <v>0.95833333333333337</v>
       </c>
-      <c r="E55" s="14">
+      <c r="E55" s="13">
         <v>6</v>
       </c>
-      <c r="F55" s="9" t="s">
+      <c r="F55" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="G55" s="9" t="s">
+      <c r="G55" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="H55" s="14" t="s">
+      <c r="H55" s="13" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="93" x14ac:dyDescent="0.35">
-      <c r="A56" s="11" t="s">
+    <row r="56" spans="1:8" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A56" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B56" s="12">
+      <c r="B56" s="11">
         <v>45378</v>
       </c>
-      <c r="C56" s="13">
+      <c r="C56" s="12">
         <v>0.5</v>
       </c>
-      <c r="D56" s="13">
+      <c r="D56" s="12">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E56" s="14">
+      <c r="E56" s="13">
         <v>5</v>
       </c>
-      <c r="F56" s="9" t="s">
+      <c r="F56" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="G56" s="9" t="s">
+      <c r="G56" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="H56" s="14" t="s">
+      <c r="H56" s="13" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A57" s="14" t="s">
+    <row r="57" spans="1:8" ht="31" x14ac:dyDescent="0.35">
+      <c r="A57" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="12">
+      <c r="B57" s="11">
         <v>45379</v>
       </c>
-      <c r="C57" s="15">
+      <c r="C57" s="14">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D57" s="15">
+      <c r="D57" s="14">
         <v>0.58333333333333337</v>
       </c>
-      <c r="E57" s="14">
+      <c r="E57" s="13">
         <v>4</v>
       </c>
-      <c r="F57" s="9" t="s">
+      <c r="F57" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="G57" s="9" t="s">
+      <c r="G57" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="H57" s="14" t="s">
+      <c r="H57" s="13" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="62" x14ac:dyDescent="0.35">
-      <c r="A58" s="11" t="s">
+      <c r="A58" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B58" s="12">
+      <c r="B58" s="11">
         <v>45380</v>
       </c>
-      <c r="C58" s="13">
+      <c r="C58" s="12">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D58" s="13">
+      <c r="D58" s="12">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E58" s="14">
+      <c r="E58" s="13">
         <v>1</v>
       </c>
-      <c r="F58" s="9" t="s">
+      <c r="F58" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G58" s="9" t="s">
+      <c r="G58" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="H58" s="9" t="s">
+      <c r="H58" s="8" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="47" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="14" t="s">
+      <c r="A59" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B59" s="12">
+      <c r="B59" s="11">
         <v>45381</v>
       </c>
-      <c r="C59" s="15">
+      <c r="C59" s="14">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D59" s="15">
+      <c r="D59" s="14">
         <v>0.5</v>
       </c>
-      <c r="E59" s="14">
+      <c r="E59" s="13">
         <v>4</v>
       </c>
-      <c r="F59" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="G59" s="9" t="s">
+      <c r="F59" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="H59" s="14" t="s">
-        <v>122</v>
+      <c r="G59" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="H59" s="13" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -2326,16 +2537,16 @@
       </c>
     </row>
     <row r="62" spans="1:8" ht="20" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A62" s="8" t="s">
+      <c r="A62" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="16"/>
     </row>
     <row r="63" spans="1:8" ht="19" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
@@ -2364,7 +2575,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" ht="31" x14ac:dyDescent="0.35">
-      <c r="A65" s="10" t="s">
+      <c r="A65" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B65" s="3" t="s">
@@ -2390,159 +2601,159 @@
       </c>
     </row>
     <row r="66" spans="1:8" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A66" s="11" t="s">
+      <c r="A66" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B66" s="12">
+      <c r="B66" s="11">
         <v>45383</v>
       </c>
-      <c r="C66" s="13">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="D66" s="13">
-        <v>0</v>
-      </c>
-      <c r="E66" s="14">
+      <c r="C66" s="12">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D66" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="E66" s="13">
         <v>4</v>
       </c>
-      <c r="F66" s="9" t="s">
+      <c r="F66" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="G66" s="9" t="s">
+      <c r="G66" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="H66" s="14" t="s">
+      <c r="H66" s="13" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A67" s="14" t="s">
+      <c r="A67" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B67" s="12">
+      <c r="B67" s="11">
         <v>45384</v>
       </c>
-      <c r="C67" s="15">
+      <c r="C67" s="14">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D67" s="15">
+      <c r="D67" s="14">
         <v>0.95833333333333337</v>
       </c>
-      <c r="E67" s="14">
+      <c r="E67" s="13">
         <v>6</v>
       </c>
-      <c r="F67" s="9" t="s">
+      <c r="F67" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="G67" s="9" t="s">
+      <c r="G67" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="H67" s="14" t="s">
+      <c r="H67" s="13" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="93" x14ac:dyDescent="0.35">
-      <c r="A68" s="11" t="s">
+    <row r="68" spans="1:8" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A68" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B68" s="12">
+      <c r="B68" s="11">
         <v>45385</v>
       </c>
-      <c r="C68" s="13">
+      <c r="C68" s="12">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D68" s="13">
+      <c r="D68" s="12">
         <v>0.79166666666666663</v>
       </c>
-      <c r="E68" s="14">
+      <c r="E68" s="13">
         <v>6</v>
       </c>
-      <c r="F68" s="9" t="s">
+      <c r="F68" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H68" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="31" x14ac:dyDescent="0.35">
+      <c r="A69" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B69" s="11">
+        <v>45386</v>
+      </c>
+      <c r="C69" s="14">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D69" s="14">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E69" s="13">
+        <v>4</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H69" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A70" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B70" s="11">
+        <v>45387</v>
+      </c>
+      <c r="C70" s="12">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D70" s="12">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E70" s="13">
+        <v>1</v>
+      </c>
+      <c r="F70" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="G68" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="H68" s="14" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="31" x14ac:dyDescent="0.35">
-      <c r="A69" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B69" s="12">
-        <v>45386</v>
-      </c>
-      <c r="C69" s="15">
+      <c r="G70" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="47" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B71" s="11">
+        <v>45388</v>
+      </c>
+      <c r="C71" s="14">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D69" s="15">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="E69" s="14">
-        <v>4</v>
-      </c>
-      <c r="F69" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="G69" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="H69" s="14" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="62" x14ac:dyDescent="0.35">
-      <c r="A70" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B70" s="12">
-        <v>45387</v>
-      </c>
-      <c r="C70" s="13">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D70" s="13">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="E70" s="14">
-        <v>1</v>
-      </c>
-      <c r="F70" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="G70" s="9" t="s">
+      <c r="D71" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="E71" s="13">
+        <v>3</v>
+      </c>
+      <c r="F71" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="H70" s="9" t="s">
+      <c r="G71" s="8" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" ht="47" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B71" s="12">
-        <v>45388</v>
-      </c>
-      <c r="C71" s="15">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D71" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="E71" s="14">
-        <v>3</v>
-      </c>
-      <c r="F71" s="9" t="s">
+      <c r="H71" s="13" t="s">
         <v>118</v>
-      </c>
-      <c r="G71" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="H71" s="14" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -2554,8 +2765,1050 @@
         <v>24</v>
       </c>
     </row>
+    <row r="74" spans="1:8" ht="20" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A74" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="16"/>
+    </row>
+    <row r="75" spans="1:8" ht="19" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A75" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B75" t="s">
+        <v>18</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75" t="s">
+        <v>19</v>
+      </c>
+      <c r="E75" t="s">
+        <v>20</v>
+      </c>
+      <c r="F75" t="s">
+        <v>21</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H75" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="31" x14ac:dyDescent="0.35">
+      <c r="A77" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="62" x14ac:dyDescent="0.35">
+      <c r="A78" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B78" s="11">
+        <v>45390</v>
+      </c>
+      <c r="C78" s="12">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D78" s="12">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E78" s="13">
+        <v>5</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G78" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="H78" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="62" x14ac:dyDescent="0.35">
+      <c r="A79" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B79" s="11">
+        <v>45391</v>
+      </c>
+      <c r="C79" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="D79" s="12">
+        <v>0.625</v>
+      </c>
+      <c r="E79" s="13">
+        <v>6</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="H79" s="13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="31" x14ac:dyDescent="0.35">
+      <c r="A80" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B80" s="11">
+        <v>45392</v>
+      </c>
+      <c r="C80" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="D80" s="12">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E80" s="13">
+        <v>4</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G80" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="H80" s="13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A81" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B81" s="11">
+        <v>45393</v>
+      </c>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="13"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="13"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A82" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B82" s="11">
+        <v>45394</v>
+      </c>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="8"/>
+    </row>
+    <row r="83" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B83" s="11">
+        <v>45395</v>
+      </c>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="13"/>
+    </row>
+    <row r="84" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D84" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E84" s="5">
+        <f>SUM(E78:E83)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="20" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A86" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" s="16"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="16"/>
+      <c r="F86" s="16"/>
+      <c r="G86" s="16"/>
+      <c r="H86" s="16"/>
+    </row>
+    <row r="87" spans="1:8" ht="19" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A87" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B87" t="s">
+        <v>18</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87" t="s">
+        <v>19</v>
+      </c>
+      <c r="E87" t="s">
+        <v>20</v>
+      </c>
+      <c r="F87" t="s">
+        <v>21</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H87" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="31" x14ac:dyDescent="0.35">
+      <c r="A89" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="31" x14ac:dyDescent="0.35">
+      <c r="A90" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B90" s="11">
+        <v>45397</v>
+      </c>
+      <c r="C90" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="D90" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="E90" s="13">
+        <v>3</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="G90" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="H90" s="13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A91" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B91" s="11">
+        <v>45398</v>
+      </c>
+      <c r="C91" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="D91" s="12">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E91" s="13">
+        <v>4</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G91" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="H91" s="13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A92" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B92" s="11">
+        <v>45399</v>
+      </c>
+      <c r="C92" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="D92" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="E92" s="13">
+        <v>3</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="G92" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="H92" s="13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A93" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B93" s="11">
+        <v>45400</v>
+      </c>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="13"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A94" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B94" s="11">
+        <v>45401</v>
+      </c>
+      <c r="C94" s="12"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="8"/>
+    </row>
+    <row r="95" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A95" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B95" s="11">
+        <v>45402</v>
+      </c>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="13"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="13"/>
+    </row>
+    <row r="96" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D96" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E96" s="5">
+        <f>SUM(E90:E95)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="20" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A98" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98" s="16"/>
+      <c r="C98" s="16"/>
+      <c r="D98" s="16"/>
+      <c r="E98" s="16"/>
+      <c r="F98" s="16"/>
+      <c r="G98" s="16"/>
+      <c r="H98" s="16"/>
+    </row>
+    <row r="99" spans="1:8" ht="19" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A99" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B99" t="s">
+        <v>18</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D99" t="s">
+        <v>19</v>
+      </c>
+      <c r="E99" t="s">
+        <v>20</v>
+      </c>
+      <c r="F99" t="s">
+        <v>21</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H99" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="31" x14ac:dyDescent="0.35">
+      <c r="A101" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B102" s="11">
+        <v>45404</v>
+      </c>
+      <c r="C102" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="D102" s="12">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E102" s="13">
+        <v>4</v>
+      </c>
+      <c r="F102" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G102" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="H102" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="143.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B103" s="11">
+        <v>45405</v>
+      </c>
+      <c r="C103" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="D103" s="12">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E103" s="13">
+        <v>2</v>
+      </c>
+      <c r="F103" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="G103" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="H103" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="155" x14ac:dyDescent="0.35">
+      <c r="A104" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B104" s="11">
+        <v>45406</v>
+      </c>
+      <c r="C104" s="12">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D104" s="12">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E104" s="13">
+        <v>5</v>
+      </c>
+      <c r="F104" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="G104" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="H104" s="13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="131" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B105" s="11">
+        <v>45407</v>
+      </c>
+      <c r="C105" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="D105" s="12">
+        <v>0.625</v>
+      </c>
+      <c r="E105" s="13">
+        <v>6</v>
+      </c>
+      <c r="F105" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="G105" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="H105" s="13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A106" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B106" s="11">
+        <v>45408</v>
+      </c>
+      <c r="C106" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="D106" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="E106" s="13">
+        <v>3</v>
+      </c>
+      <c r="F106" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G106" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="H106" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="38.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A107" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B107" s="11">
+        <v>45409</v>
+      </c>
+      <c r="C107" s="12">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D107" s="12">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E107" s="13">
+        <v>2</v>
+      </c>
+      <c r="F107" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G107" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="H107" s="13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D108" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E108" s="5">
+        <f>SUM(E102:E107)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="20" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A110" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B110" s="16"/>
+      <c r="C110" s="16"/>
+      <c r="D110" s="16"/>
+      <c r="E110" s="16"/>
+      <c r="F110" s="16"/>
+      <c r="G110" s="16"/>
+      <c r="H110" s="16"/>
+    </row>
+    <row r="111" spans="1:8" ht="19" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A111" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B111" t="s">
+        <v>18</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D111" t="s">
+        <v>19</v>
+      </c>
+      <c r="E111" t="s">
+        <v>20</v>
+      </c>
+      <c r="F111" t="s">
+        <v>21</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H111" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="31" x14ac:dyDescent="0.35">
+      <c r="A113" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H113" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="101.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B114" s="11">
+        <v>45411</v>
+      </c>
+      <c r="C114" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="D114" s="12">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E114" s="13">
+        <v>5</v>
+      </c>
+      <c r="F114" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="G114" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="H114" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="98.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B115" s="11">
+        <v>45412</v>
+      </c>
+      <c r="C115" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="D115" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="E115" s="13">
+        <v>3</v>
+      </c>
+      <c r="F115" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G115" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="H115" s="13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="83" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B116" s="11">
+        <v>45413</v>
+      </c>
+      <c r="C116" s="12">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D116" s="12">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E116" s="13">
+        <v>7</v>
+      </c>
+      <c r="F116" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="G116" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="H116" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="187.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B117" s="11">
+        <v>45414</v>
+      </c>
+      <c r="C117" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="D117" s="14">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E117" s="13">
+        <v>10</v>
+      </c>
+      <c r="F117" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G117" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="H117" s="13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="208.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B118" s="11">
+        <v>45415</v>
+      </c>
+      <c r="C118" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="D118" s="12">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E118" s="13">
+        <v>5</v>
+      </c>
+      <c r="F118" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="G118" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H118" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A119" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B119" s="11">
+        <v>45416</v>
+      </c>
+      <c r="C119" s="14"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="13"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c r="H119" s="13"/>
+    </row>
+    <row r="120" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D120" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E120" s="5">
+        <f>SUM(E114:E119)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="20" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A122" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B122" s="16"/>
+      <c r="C122" s="16"/>
+      <c r="D122" s="16"/>
+      <c r="E122" s="16"/>
+      <c r="F122" s="16"/>
+      <c r="G122" s="16"/>
+      <c r="H122" s="16"/>
+    </row>
+    <row r="123" spans="1:8" ht="19" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A123" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" t="s">
+        <v>18</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D123" t="s">
+        <v>19</v>
+      </c>
+      <c r="E123" t="s">
+        <v>20</v>
+      </c>
+      <c r="F123" t="s">
+        <v>21</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H123" s="15" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="31" x14ac:dyDescent="0.35">
+      <c r="A125" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="119.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B126" s="11">
+        <v>45418</v>
+      </c>
+      <c r="C126" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="D126" s="12">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E126" s="13">
+        <v>2</v>
+      </c>
+      <c r="F126" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="G126" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="H126" s="13" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="131.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B127" s="11">
+        <v>45419</v>
+      </c>
+      <c r="C127" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="D127" s="12">
+        <v>0.875</v>
+      </c>
+      <c r="E127" s="13">
+        <v>12</v>
+      </c>
+      <c r="F127" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G127" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="H127" s="13" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="221" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B128" s="11">
+        <v>45420</v>
+      </c>
+      <c r="C128" s="12">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D128" s="12">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E128" s="13">
+        <v>7</v>
+      </c>
+      <c r="F128" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="G128" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="H128" s="13" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="108.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B129" s="11">
+        <v>45421</v>
+      </c>
+      <c r="C129" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="D129" s="14">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E129" s="13">
+        <v>2</v>
+      </c>
+      <c r="F129" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="G129" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="H129" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A130" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B130" s="11">
+        <v>45422</v>
+      </c>
+      <c r="C130" s="12"/>
+      <c r="D130" s="12"/>
+      <c r="E130" s="13"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c r="H130" s="8"/>
+    </row>
+    <row r="131" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A131" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B131" s="11">
+        <v>45423</v>
+      </c>
+      <c r="C131" s="14"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="13"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c r="H131" s="13"/>
+    </row>
+    <row r="132" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D132" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E132" s="5">
+        <f>SUM(E126:E131)</f>
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="11">
+    <mergeCell ref="A122:H122"/>
+    <mergeCell ref="A86:H86"/>
+    <mergeCell ref="A98:H98"/>
+    <mergeCell ref="A110:H110"/>
+    <mergeCell ref="A74:H74"/>
     <mergeCell ref="A62:H62"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A14:H14"/>
@@ -2565,13 +3818,13 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Please enter time in military time format between 0:00 and 23:59 (1:00, 8:00, 13:00, 20:00, etc.)." sqref="C6:D11 C18:D23 C30:D35 C42:D47 C54:D59 C66:D71" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Please enter time in military time format between 0:00 and 23:59 (1:00, 8:00, 13:00, 20:00, etc.)." sqref="C6:D11 C18:D23 C30:D35 C42:D47 C54:D59 C66:D71 C114:D119 C78:D83 C90:D95 C102:D107 C126:D131" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
       <formula2>0.999305555555556</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="75" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="12" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>
